--- a/src/data/excel_data/motores_por_cabecera.xlsx
+++ b/src/data/excel_data/motores_por_cabecera.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repuestos01\Documents\Programas\auto_plot\excel_info\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C631C8B-205C-4330-B518-BD5AF1566DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="28">
   <si>
     <t>Cabecera</t>
   </si>
   <si>
-    <t>Repuesto</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
+    <t>Motores</t>
+  </si>
+  <si>
+    <t>Cantidad Motores</t>
   </si>
   <si>
     <t>BARRACAS</t>
@@ -91,12 +85,12 @@
     <t>TG LANUS</t>
   </si>
   <si>
+    <t>CUMMINS 4C/6C E3</t>
+  </si>
+  <si>
     <t>CUMMINS 6C EURO V</t>
   </si>
   <si>
-    <t>CUMMINS 4C/6C E3</t>
-  </si>
-  <si>
     <t>MAXXFORCE 6C</t>
   </si>
   <si>
@@ -104,16 +98,13 @@
   </si>
   <si>
     <t>MWM 4C</t>
-  </si>
-  <si>
-    <t>Columna1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,101 +165,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B87D591D-84D0-4004-90E8-B251B1B2A52E}" name="Tabla1" displayName="Tabla1" ref="A1:D101" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D101" xr:uid="{B87D591D-84D0-4004-90E8-B251B1B2A52E}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6AB0FA4E-8135-44F8-873F-9FA3DD117932}" name="Columna1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F155B3C5-B2EE-4AB3-B54F-D8DD26A4189E}" name="Cabecera"/>
-    <tableColumn id="3" xr3:uid="{4D24D71F-C014-474B-9D9C-805B4DFFDFA9}" name="Repuesto"/>
-    <tableColumn id="4" xr3:uid="{33613160-DA6C-4E09-8251-4F9B34CF7095}" name="Cantidad"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -340,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -375,10 +279,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,25 +454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -591,10 +483,10 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -605,1385 +497,976 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
       </c>
       <c r="D37">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D57">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D59">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D62">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
       </c>
       <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D72">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>20</v>
-      </c>
-      <c r="C89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>